--- a/config_debug/fish_3d_jackpot_server.xlsx
+++ b/config_debug/fish_3d_jackpot_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\欢乐天天捕鱼\doc\奖池系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>game_name</t>
   </si>
@@ -397,31 +397,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>25919997,172799613</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1259199794,2591999793</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172799614,1259199793</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2591999794,3000000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25919998,172799613</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>172799614,2591999793</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2591999794,3000000000</t>
+    <t>259200001,359199979</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25919998,259200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25919997,2592000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>259200001,3591999793</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +892,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H14" sqref="H13:H14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -995,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="8">
-        <v>259199973</v>
+        <v>260000000</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>20</v>
@@ -1038,7 +1026,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="8">
-        <v>2591999793</v>
+        <v>2600000000</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>20</v>
@@ -1458,7 +1446,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1520,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>98</v>
@@ -1540,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>97</v>
@@ -1557,16 +1545,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>106</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1577,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>96</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1593,66 +1581,20 @@
       <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>100</v>
+      <c r="C7" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>98</v>
-      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="17"/>

--- a/config_debug/fish_3d_jackpot_server.xlsx
+++ b/config_debug/fish_3d_jackpot_server.xlsx
@@ -37,10 +37,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>试炼场</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fx_award_id|固定奖励配置</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -193,10 +189,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>神秘海域</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>id|奖励id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -410,6 +402,14 @@
   </si>
   <si>
     <t>259200001,3591999793</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -915,57 +915,57 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3">
         <v>15000000</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -986,29 +986,29 @@
         <v>260000000</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3">
         <v>15000000</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3">
         <v>2</v>
@@ -1029,7 +1029,7 @@
         <v>2600000000</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1351,10 +1351,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1405,10 +1405,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>2</v>
@@ -1419,10 +1419,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="10"/>
     </row>
@@ -1462,19 +1462,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -1488,16 +1488,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1508,16 +1508,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1528,16 +1528,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1548,13 +1548,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1565,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1582,13 +1582,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1649,22 +1649,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>2</v>
@@ -1684,11 +1684,11 @@
         <v>48</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1706,10 +1706,10 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1726,11 +1726,11 @@
         <v>48</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1797,19 +1797,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -1823,16 +1823,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="17">
         <v>1500</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1843,16 +1843,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="17">
         <v>1500</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1863,16 +1863,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="17">
         <v>1500</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1883,10 +1883,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="17">
         <v>1500</v>
@@ -1900,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="17">
         <v>1500</v>
@@ -1917,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="17">
         <v>1500</v>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E8" s="17">
         <v>1500</v>
@@ -1951,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="17">
         <v>1500</v>
@@ -1968,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E10" s="17">
         <v>1500</v>
@@ -1985,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="17">
         <v>1500</v>
@@ -2002,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E12" s="17">
         <v>1500</v>
@@ -2019,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="17">
         <v>1500</v>
@@ -2036,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="17">
         <v>1500</v>
@@ -2053,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="17">
         <v>1500</v>
@@ -2070,10 +2070,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="10">
         <v>15000</v>
@@ -2087,10 +2087,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="10">
         <v>15000</v>
@@ -2104,10 +2104,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E18" s="10">
         <v>15000</v>
@@ -2121,10 +2121,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="10">
         <v>15000</v>
@@ -2138,10 +2138,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="10">
         <v>15000</v>
@@ -2155,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="10">
         <v>15000</v>
@@ -2172,10 +2172,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="10">
         <v>15000</v>
@@ -2189,10 +2189,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E23" s="10">
         <v>15000</v>
@@ -2206,10 +2206,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="10">
         <v>15000</v>
@@ -2223,10 +2223,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" s="10">
         <v>15000</v>
@@ -2240,10 +2240,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E26" s="10">
         <v>15000</v>
@@ -2257,10 +2257,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="10">
         <v>15000</v>
@@ -2274,10 +2274,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" s="10">
         <v>15000</v>
@@ -2291,10 +2291,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="10">
         <v>15000</v>
@@ -2322,10 +2322,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -2339,7 +2339,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_jackpot_server.xlsx
+++ b/config_debug/fish_3d_jackpot_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>game_name</t>
   </si>
@@ -197,219 +197,223 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">	增加值 = 子弹倍数*0.0025级 (1-10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>8,10</t>
+  </si>
+  <si>
+    <t>10,14</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>15,18</t>
+  </si>
+  <si>
+    <t>18,20</t>
+  </si>
+  <si>
+    <t>20,22</t>
+  </si>
+  <si>
+    <t>22,23</t>
+  </si>
+  <si>
+    <t>23,24</t>
+  </si>
+  <si>
+    <t>3960,5170</t>
+  </si>
+  <si>
+    <t>2420,3630</t>
+  </si>
+  <si>
+    <t>1980,2860</t>
+  </si>
+  <si>
+    <t>550,1760</t>
+  </si>
+  <si>
+    <t>330,1320</t>
+  </si>
+  <si>
+    <t>880,2200</t>
+  </si>
+  <si>
+    <t>1980,3740</t>
+  </si>
+  <si>
+    <t>3520,5720</t>
+  </si>
+  <si>
+    <t>6380,8580</t>
+  </si>
+  <si>
+    <t>5280,6820</t>
+  </si>
+  <si>
+    <t>6820,9350</t>
+  </si>
+  <si>
+    <t>9570,14410</t>
+  </si>
+  <si>
+    <t>8250,9240</t>
+  </si>
+  <si>
+    <t>6380,8360</t>
+  </si>
+  <si>
+    <t>360,470</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>220,330</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,260</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,160</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,120</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80,200</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,340</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>320,520</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>580,780</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>480,620</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>620,850</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>870,1310</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>750,840</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>580,760</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_pool_limit_id|奖池限制配置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit_id|奖池限制ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.000000771605,0.00000115741</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.00000661376,0.0000462963</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,25919997</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>259200001,359199979</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25919998,259200000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25919997,2592000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>259200001,3591999793</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>奖池总金额 * 系数 * 炮的等级 (1-10)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">	增加值 = 子弹倍数*0.0025级 (1-10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>2,3</t>
-  </si>
-  <si>
     <t>3,4</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>6,8</t>
-  </si>
-  <si>
-    <t>8,10</t>
-  </si>
-  <si>
-    <t>10,14</t>
-  </si>
-  <si>
-    <t>14,15</t>
-  </si>
-  <si>
-    <t>15,18</t>
-  </si>
-  <si>
-    <t>18,20</t>
-  </si>
-  <si>
-    <t>20,22</t>
-  </si>
-  <si>
-    <t>22,23</t>
-  </si>
-  <si>
-    <t>23,24</t>
-  </si>
-  <si>
-    <t>3960,5170</t>
-  </si>
-  <si>
-    <t>2420,3630</t>
-  </si>
-  <si>
-    <t>1980,2860</t>
-  </si>
-  <si>
-    <t>550,1760</t>
-  </si>
-  <si>
-    <t>330,1320</t>
-  </si>
-  <si>
-    <t>880,2200</t>
-  </si>
-  <si>
-    <t>1980,3740</t>
-  </si>
-  <si>
-    <t>3520,5720</t>
-  </si>
-  <si>
-    <t>6380,8580</t>
-  </si>
-  <si>
-    <t>5280,6820</t>
-  </si>
-  <si>
-    <t>6820,9350</t>
-  </si>
-  <si>
-    <t>9570,14410</t>
-  </si>
-  <si>
-    <t>8250,9240</t>
-  </si>
-  <si>
-    <t>6380,8360</t>
-  </si>
-  <si>
-    <t>360,470</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>220,330</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180,260</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,160</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,120</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80,200</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>180,340</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>320,520</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>580,780</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>480,620</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>620,850</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>870,1310</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>750,840</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>580,760</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_pool_limit_id|奖池限制配置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_id|奖池限制ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,2000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.000000771605,0.00000115741</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.00000661376,0.0000462963</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,25919997</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>259200001,359199979</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25919998,259200000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>25919997,2592000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>259200001,3591999793</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝海湾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -892,7 +896,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,7 +937,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>35</v>
@@ -959,16 +963,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3">
         <v>15000000</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -1002,16 +1006,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3">
         <v>15000000</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
@@ -1338,7 +1342,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1365,10 +1369,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1376,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1388,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1415,24 +1419,39 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="10"/>
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1446,7 +1465,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1488,13 +1507,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>20</v>
@@ -1508,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>21</v>
@@ -1528,13 +1547,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>30</v>
@@ -1548,13 +1567,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1565,13 +1584,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1582,13 +1601,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1652,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>41</v>
@@ -1684,7 +1703,7 @@
         <v>48</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="10" t="s">
@@ -1706,7 +1725,7 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>29</v>
@@ -1726,7 +1745,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="10" t="s">
@@ -1748,7 +1767,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1823,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="17">
         <v>1500</v>
@@ -1843,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="17">
         <v>1500</v>
@@ -1863,10 +1882,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="17">
         <v>1500</v>
@@ -1883,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="17">
         <v>1500</v>
@@ -1900,10 +1919,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="17">
         <v>1500</v>
@@ -1917,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="17">
         <v>1500</v>
@@ -1934,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="17">
         <v>1500</v>
@@ -1951,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="17">
         <v>1500</v>
@@ -1968,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="17">
         <v>1500</v>
@@ -1985,10 +2004,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="17">
         <v>1500</v>
@@ -2002,10 +2021,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="17">
         <v>1500</v>
@@ -2019,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="17">
         <v>1500</v>
@@ -2036,10 +2055,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="17">
         <v>1500</v>
@@ -2053,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="17">
         <v>1500</v>
@@ -2070,10 +2089,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="10">
         <v>15000</v>
@@ -2087,10 +2106,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="10">
         <v>15000</v>
@@ -2104,10 +2123,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18" s="10">
         <v>15000</v>
@@ -2121,10 +2140,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="10">
         <v>15000</v>
@@ -2138,10 +2157,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="10">
         <v>15000</v>
@@ -2155,10 +2174,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="10">
         <v>15000</v>
@@ -2172,10 +2191,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="10">
         <v>15000</v>
@@ -2189,10 +2208,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="10">
         <v>15000</v>
@@ -2206,10 +2225,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="10">
         <v>15000</v>
@@ -2223,10 +2242,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="10">
         <v>15000</v>
@@ -2240,10 +2259,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="10">
         <v>15000</v>
@@ -2257,10 +2276,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="10">
         <v>15000</v>
@@ -2274,10 +2293,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="10">
         <v>15000</v>
@@ -2291,10 +2310,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="10">
         <v>15000</v>
@@ -2339,7 +2358,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/config_debug/fish_3d_jackpot_server.xlsx
+++ b/config_debug/fish_3d_jackpot_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\JyQipai_doc\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -409,10 +409,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -493,6 +489,10 @@
   <si>
     <t>10,10,10</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>19</v>
@@ -1639,13 +1639,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>20</v>
@@ -1665,7 +1665,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>29</v>
@@ -1685,10 +1685,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>118</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1705,7 +1705,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,10 +1719,10 @@
         <v>91</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1739,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1756,7 +1756,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1770,10 +1770,10 @@
         <v>91</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1812,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>28</v>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2553,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2591,16 +2591,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>105</v>
-      </c>
       <c r="E2" s="12" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F2" s="11">
         <v>1</v>
@@ -2649,16 +2649,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="C1" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2666,13 +2666,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2680,7 +2680,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -2691,7 +2691,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>

--- a/config_debug/fish_3d_jackpot_server.xlsx
+++ b/config_debug/fish_3d_jackpot_server.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEA894-C2E6-4356-9D6D-A4D42559CE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -490,10 +491,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>interval|间隔(单位小时)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -506,10 +503,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>week_interval|周末抽大奖间隔(单位小时)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>15</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -532,12 +525,20 @@
   <si>
     <t>30</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval|间隔(单位分钟)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_interval|周末抽大奖间隔(单位分钟)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -783,7 +784,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1055,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1497,11 +1498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1521,10 +1522,10 @@
         <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1532,13 +1533,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="11"/>
@@ -1548,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1563,13 +1564,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1577,13 +1578,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1600,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1653,7 +1654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1715,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1951,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2100,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2629,7 +2630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2692,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2775,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config_debug/fish_3d_jackpot_server.xlsx
+++ b/config_debug/fish_3d_jackpot_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -506,10 +506,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>interval|间隔(单位分钟)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -522,28 +518,32 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
+    <t>24</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
+    <t>24</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
+    <t>12</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
+    <t>12</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1513,7 +1513,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1533,10 +1533,10 @@
         <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1547,10 +1547,10 @@
         <v>126</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="11"/>
@@ -1563,10 +1563,10 @@
         <v>123</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1581,7 +1581,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1592,10 +1592,10 @@
         <v>125</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
